--- a/datakomisiterapisharian.xlsx
+++ b/datakomisiterapisharian.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,10 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="27.6" customWidth="1" min="4" max="4"/>
+    <col width="33.6" customWidth="1" min="4" max="4"/>
     <col width="15.6" customWidth="1" min="5" max="5"/>
     <col width="7.199999999999999" customWidth="1" min="6" max="6"/>
-    <col width="14.4" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -500,7 +500,7 @@
     <row r="2" ht="30" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>LAPORAN KOMISI TERAPIS Tanggal 2025-06-01 - Tanggal 2025-06-09</t>
+          <t>LAPORAN KOMISI TERAPIS Tanggal 2025-08-31 - Tanggal 2025-08-31</t>
         </is>
       </c>
       <c r="B2" s="4" t="n"/>
@@ -562,7 +562,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>Lola</t>
+          <t>Sasa</t>
         </is>
       </c>
       <c r="C5" s="6" t="n"/>
@@ -575,27 +575,27 @@
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>TF0051</t>
+          <t>TF0163</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
         <is>
-          <t>08-06-2025 19:37:51</t>
+          <t>31-08-2025 18:26:59</t>
         </is>
       </c>
       <c r="C6" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>P002</t>
         </is>
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>Hot Massage</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>300.000</t>
         </is>
       </c>
       <c r="F6" s="8" t="n">
@@ -603,85 +603,159 @@
       </c>
       <c r="G6" s="7" t="inlineStr">
         <is>
+          <t>30.000</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Traditional Massage 30 Min</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>200.000</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>20.000</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>TF0163</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>kalomania</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
           <t>225.000</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>Lola</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="6" t="n"/>
-      <c r="E7" s="6" t="n"/>
-      <c r="F7" s="9" t="inlineStr"/>
-      <c r="G7" s="10" t="inlineStr">
-        <is>
-          <t>225.000</t>
-        </is>
-      </c>
-      <c r="H7" s="9" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n"/>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="6" t="n"/>
-      <c r="E8" s="6" t="n"/>
-      <c r="F8" s="6" t="n"/>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="n"/>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>Sasa</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>Terapis :</t>
+          <t>TF0163</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
+          <t>31-08-2025 18:26:59</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Paket Sejahteramana</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>500.000</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>400.000</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
           <t>Sasa</t>
         </is>
       </c>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="6" t="n"/>
-      <c r="E9" s="6" t="n"/>
-      <c r="F9" s="6" t="n"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>TF0002</t>
+          <t>TF0163</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:14:12</t>
+          <t>31-08-2025 18:26:59</t>
         </is>
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>M004</t>
         </is>
       </c>
       <c r="D10" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>paket bajinurakaloman</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>4.000.000</t>
         </is>
       </c>
       <c r="F10" s="8" t="n">
@@ -689,7 +763,7 @@
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -699,149 +773,75 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>TF0002</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:14:12</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Paket Sejahteramana</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F11" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>400.000</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
+      <c r="F11" s="9" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>1.075.000</t>
+        </is>
+      </c>
+      <c r="H11" s="9" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>TF0002</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:14:12</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>Paket Sejahteramana</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>400.000</t>
-        </is>
-      </c>
-      <c r="H12" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+      <c r="E12" s="6" t="n"/>
+      <c r="F12" s="6" t="n"/>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>TF0002</t>
+          <t>Terapis :</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:14:12</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>kalomania</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>225.000</t>
-        </is>
-      </c>
-      <c r="H13" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
+          <t>Yola</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="n"/>
+      <c r="F13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>TF0002</t>
+          <t>TF0163</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:14:12</t>
+          <t>31-08-2025 18:26:59</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>M003</t>
+          <t>P002</t>
         </is>
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>kalomania</t>
+          <t>Hot Massage</t>
         </is>
       </c>
       <c r="E14" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>300.000</t>
         </is>
       </c>
       <c r="F14" s="8" t="n">
@@ -849,64 +849,64 @@
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
-          <t>225.000</t>
+          <t>30.000</t>
         </is>
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Yola</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0163</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>31-08-2025 18:26:59</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>M004</t>
+          <t>P001</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>paket bajinurakaloman</t>
+          <t>Traditional Massage 30 Min</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>4.000.000</t>
+          <t>200.000</t>
         </is>
       </c>
       <c r="F15" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
-          <t>1.200.000</t>
+          <t>20.000</t>
         </is>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Yola</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0163</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>31-08-2025 18:26:59</t>
         </is>
       </c>
       <c r="C16" s="6" t="inlineStr">
@@ -934,74 +934,74 @@
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Yola</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0163</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>31-08-2025 18:26:59</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>M006</t>
+          <t>M002</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>paket lontong</t>
+          <t>Paket Sejahteramana</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>6.550.000</t>
+          <t>500.000</t>
         </is>
       </c>
       <c r="F17" s="8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>600.000</t>
+          <t>400.000</t>
         </is>
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Yola</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>TF0003</t>
+          <t>TF0163</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
         <is>
-          <t>06-06-2025 08:45:33</t>
+          <t>31-08-2025 18:26:59</t>
         </is>
       </c>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>M002</t>
+          <t>M004</t>
         </is>
       </c>
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Paket Sejahteramana</t>
+          <t>paket bajinurakaloman</t>
         </is>
       </c>
       <c r="E18" s="7" t="inlineStr">
         <is>
-          <t>500.000</t>
+          <t>4.000.000</t>
         </is>
       </c>
       <c r="F18" s="8" t="n">
@@ -1014,533 +1014,53 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>Sasa</t>
+          <t>Yola</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>TF0003</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:45:33</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>Paket Sejahteramana</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F19" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>400.000</t>
-        </is>
-      </c>
-      <c r="H19" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>TF0003</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:45:33</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>paket bajinurakaloman</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>4.000.000</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>400.000</t>
-        </is>
-      </c>
-      <c r="H20" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>TF0003</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:45:33</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>paket lontong</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>6.550.000</t>
-        </is>
-      </c>
-      <c r="F21" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>150.000</t>
-        </is>
-      </c>
-      <c r="H21" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="6" t="n"/>
+      <c r="E19" s="6" t="n"/>
+      <c r="F19" s="9" t="inlineStr"/>
+      <c r="G19" s="10" t="inlineStr">
+        <is>
+          <t>1.075.000</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>TF0003</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:45:33</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>kalomania</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F22" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
-        <is>
-          <t>225.000</t>
-        </is>
-      </c>
-      <c r="H22" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>TF0004</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:48:47</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>Paket Sejahteramana</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7" t="inlineStr">
-        <is>
-          <t>400.000</t>
-        </is>
-      </c>
-      <c r="H23" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>TF0004</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:48:47</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>M002</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>Paket Sejahteramana</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
-        <is>
-          <t>1.600.000</t>
-        </is>
-      </c>
-      <c r="H24" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>TF0004</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:48:47</t>
-        </is>
-      </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
-        <is>
-          <t>paket bajinurakaloman</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>4.000.000</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>800.000</t>
-        </is>
-      </c>
-      <c r="H25" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>TF0004</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:48:47</t>
-        </is>
-      </c>
-      <c r="C26" s="6" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>paket bajinurakaloman</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr">
-        <is>
-          <t>4.000.000</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" s="7" t="inlineStr">
-        <is>
-          <t>2.000.000</t>
-        </is>
-      </c>
-      <c r="H26" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>TF0004</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:48:47</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>kalomania</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr">
-        <is>
-          <t>500.000</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7" t="inlineStr">
-        <is>
-          <t>225.000</t>
-        </is>
-      </c>
-      <c r="H27" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>TF0004</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:48:47</t>
-        </is>
-      </c>
-      <c r="C28" s="6" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
-      <c r="D28" s="6" t="inlineStr">
-        <is>
-          <t>pasoaodkaosdoak</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="inlineStr">
-        <is>
-          <t>600.000</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="7" t="inlineStr">
-        <is>
-          <t>1.500.000</t>
-        </is>
-      </c>
-      <c r="H28" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>TF0004</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:48:47</t>
-        </is>
-      </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="inlineStr">
-        <is>
-          <t>paket lontong</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>6.550.000</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="7" t="inlineStr">
-        <is>
-          <t>150.000</t>
-        </is>
-      </c>
-      <c r="H29" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>TF0004</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>06-06-2025 08:48:47</t>
-        </is>
-      </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="D30" s="6" t="inlineStr">
-        <is>
-          <t>paket lontong</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>6.550.000</t>
-        </is>
-      </c>
-      <c r="F30" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G30" s="7" t="inlineStr">
-        <is>
-          <t>600.000</t>
-        </is>
-      </c>
-      <c r="H30" s="6" t="inlineStr">
-        <is>
-          <t>Sasa</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
-      <c r="D31" s="6" t="n"/>
-      <c r="E31" s="6" t="n"/>
-      <c r="F31" s="9" t="inlineStr"/>
-      <c r="G31" s="10" t="inlineStr">
-        <is>
-          <t>12.350.000</t>
-        </is>
-      </c>
-      <c r="H31" s="9" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>TOTAL SELURUH KOMISI</t>
         </is>
       </c>
-      <c r="B34" s="5" t="n"/>
-      <c r="C34" s="5" t="inlineStr"/>
-      <c r="D34" s="5" t="inlineStr"/>
-      <c r="E34" s="5" t="inlineStr"/>
-      <c r="F34" s="5" t="inlineStr"/>
-      <c r="G34" s="5" t="inlineStr">
-        <is>
-          <t>12.575.000</t>
-        </is>
-      </c>
-      <c r="H34" s="11" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="inlineStr"/>
+      <c r="D22" s="5" t="inlineStr"/>
+      <c r="E22" s="5" t="inlineStr"/>
+      <c r="F22" s="5" t="inlineStr"/>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>2.150.000</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
